--- a/output/dados_pesquisa_opiniao_instagram.xlsx
+++ b/output/dados_pesquisa_opiniao_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,19 +479,29 @@
           <t>Escolaridade</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Gênero</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faixa Etária</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2925</v>
+        <v>8854</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -501,17 +511,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -520,10 +530,12 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8498</v>
+        <v>9908</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -532,80 +544,84 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2987</v>
+        <v>5683</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Amapá</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4924</v>
+        <v>6256</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -614,7 +630,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -624,115 +640,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4525</v>
+        <v>9501</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8989</v>
+        <v>6110</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1571</v>
+        <v>891</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -742,22 +764,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -766,19 +788,21 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7426</v>
+        <v>3517</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -793,12 +817,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -807,10 +831,12 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4673</v>
+        <v>9284</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -819,63 +845,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2488</v>
+        <v>71</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -889,24 +917,26 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5957</v>
+        <v>508</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Paraná</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -916,24 +946,26 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6496</v>
+        <v>5938</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -942,7 +974,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -952,7 +984,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -962,19 +994,21 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3445</v>
+        <v>1248</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -983,89 +1017,93 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5435</v>
+        <v>356</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9532</v>
+        <v>520</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1075,125 +1113,131 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>587</v>
+        <v>9644</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>916</v>
+        <v>7883</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>5139</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1203,38 +1247,40 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2618</v>
+        <v>2921</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1244,33 +1290,35 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3881</v>
+        <v>7937</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1280,94 +1328,98 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3795</v>
+        <v>5263</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6900</v>
+        <v>2231</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1377,55 +1429,59 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9919</v>
+        <v>8191</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Rio Grande do Norte</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>472</v>
+        <v>9949</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1434,89 +1490,93 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Espírito Santo</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5003</v>
+        <v>8497</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6826</v>
+        <v>2680</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1531,24 +1591,26 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8787</v>
+        <v>8171</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1557,22 +1619,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Paraíba</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1582,202 +1644,212 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5485</v>
+        <v>4144</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Paraná</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8753</v>
+        <v>1641</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Paraíba</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5655</v>
+        <v>4767</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Paraná</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8266</v>
+        <v>7318</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1454</v>
+        <v>1064</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1787,14 +1859,16 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1809</v>
+        <v>1883</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1803,58 +1877,60 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>504</v>
+        <v>73</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Espírito Santo</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1864,69 +1940,73 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6963</v>
+        <v>8181</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>710</v>
+        <v>8013</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1936,53 +2016,55 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7579</v>
+        <v>270</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1992,23 +2074,25 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3746</v>
+        <v>6266</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>Mato Grosso do Sul</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2028,79 +2112,83 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>547</v>
+        <v>9157</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5055</v>
+        <v>620</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2110,19 +2198,21 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6606</v>
+        <v>9608</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2131,27 +2221,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2160,19 +2250,21 @@
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6893</v>
+        <v>9779</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2187,33 +2279,35 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7839</v>
+        <v>3355</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2228,166 +2322,174 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7803</v>
+        <v>7685</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7356</v>
+        <v>9415</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3213</v>
+        <v>2014</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2915</v>
+        <v>1410</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Paraná</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2397,64 +2499,68 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5947</v>
+        <v>6960</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9297</v>
+        <v>9753</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2474,38 +2580,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5767</v>
+        <v>1671</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Paraíba</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2515,33 +2623,35 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1859</v>
+        <v>7627</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2551,7 +2661,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2561,7 +2671,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2570,34 +2680,36 @@
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2656</v>
+        <v>9668</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2607,23 +2719,25 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1267</v>
+        <v>3991</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2633,79 +2747,83 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3438</v>
+        <v>5262</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3677</v>
+        <v>2327</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2715,58 +2833,60 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1579</v>
+        <v>3837</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Rio Grande do Norte</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2775,19 +2895,21 @@
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6848</v>
+        <v>6765</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Alagoas</t>
+          <t>Espírito Santo</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2797,130 +2919,136 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2397</v>
+        <v>2663</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Amapá</t>
+          <t>Espírito Santo</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1444</v>
+        <v>4686</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9221</v>
+        <v>5042</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2935,69 +3063,73 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>316</v>
+        <v>3633</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4780</v>
+        <v>3748</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Amapá</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3012,7 +3144,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3021,10 +3153,12 @@
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4028</v>
+        <v>4500</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3033,27 +3167,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3062,10 +3196,12 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7815</v>
+        <v>9094</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3074,53 +3210,55 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4568</v>
+        <v>6321</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3135,7 +3273,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3144,10 +3282,12 @@
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4097</v>
+        <v>1383</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3156,80 +3296,84 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6518</v>
+        <v>9078</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3822</v>
+        <v>5187</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3238,22 +3382,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3267,19 +3411,21 @@
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9419</v>
+        <v>746</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Alagoas</t>
+          <t>Espírito Santo</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3289,89 +3435,93 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5524</v>
+        <v>5958</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6024</v>
+        <v>2297</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3381,43 +3531,45 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6142</v>
+        <v>4186</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3431,24 +3583,26 @@
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3857</v>
+        <v>7241</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3463,79 +3617,83 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3982</v>
+        <v>4418</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2420</v>
+        <v>5698</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Paraíba</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3545,33 +3703,35 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4765</v>
+        <v>5599</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Paraná</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3581,48 +3741,50 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2579</v>
+        <v>3654</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3632,14 +3794,16 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3040</v>
+        <v>9225</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3648,12 +3812,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3663,33 +3827,35 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2446</v>
+        <v>7664</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3704,84 +3870,88 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1428</v>
+        <v>2491</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Paraíba</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3227</v>
+        <v>6262</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3791,19 +3961,21 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>8435</v>
+        <v>8744</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3812,12 +3984,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3827,24 +3999,26 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3008</v>
+        <v>341</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3853,7 +4027,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3868,74 +4042,78 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6475</v>
+        <v>967</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8003</v>
+        <v>9679</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3945,99 +4123,103 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3987</v>
+        <v>5903</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8270</v>
+        <v>2982</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4046,65 +4228,69 @@
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7696</v>
+        <v>9651</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>118</v>
+        <v>2228</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4114,12 +4300,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4128,60 +4314,64 @@
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4453</v>
+        <v>283</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9081</v>
+        <v>2348</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4191,7 +4381,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4201,89 +4391,93 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5648</v>
+        <v>3301</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1320</v>
+        <v>1381</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4292,70 +4486,74 @@
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8547</v>
+        <v>4773</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6636</v>
+        <v>747</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Espírito Santo</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4365,48 +4563,50 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6469</v>
+        <v>798</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4415,60 +4615,64 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6429</v>
+        <v>1621</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Rio Grande do Norte</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>7094</v>
+        <v>2451</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4478,79 +4682,83 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9154</v>
+        <v>3973</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9723</v>
+        <v>8781</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Paraíba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4560,161 +4768,169 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9715</v>
+        <v>5320</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Distrito Federal</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4977</v>
+        <v>689</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Mato Grosso do Sul</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6595</v>
+        <v>9000</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8815</v>
+        <v>7590</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4724,74 +4940,78 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5579</v>
+        <v>7711</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Paraíba</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8309</v>
+        <v>8245</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4801,17 +5021,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4821,23 +5041,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2550</v>
+        <v>6576</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Alagoas</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4847,7 +5069,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4857,7 +5079,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4866,60 +5088,64 @@
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>698</v>
+        <v>4072</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7947</v>
+        <v>8719</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4929,17 +5155,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4948,39 +5174,41 @@
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1410</v>
+        <v>2992</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>Mato Grosso do Sul</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4989,10 +5217,12 @@
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5369</v>
+        <v>5107</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5001,12 +5231,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5016,125 +5246,131 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6299</v>
+        <v>696</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Paraíba</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2629</v>
+        <v>1900</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9461</v>
+        <v>3950</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5144,7 +5380,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5153,19 +5389,21 @@
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6882</v>
+        <v>7040</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5175,12 +5413,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5190,43 +5428,45 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>672</v>
+        <v>6803</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5235,24 +5475,26 @@
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8361</v>
+        <v>3335</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Alagoas</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5262,12 +5504,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5276,24 +5518,26 @@
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2913</v>
+        <v>2535</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5303,24 +5547,26 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5465</v>
+        <v>5385</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5329,7 +5575,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5339,12 +5585,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5358,19 +5604,21 @@
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6407</v>
+        <v>4476</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5380,43 +5628,45 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7619</v>
+        <v>9571</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Tocantins</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5431,33 +5681,35 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>7576</v>
+        <v>6090</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5467,12 +5719,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5481,39 +5733,41 @@
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2858</v>
+        <v>9581</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Rio Grande do Sul</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5522,14 +5776,16 @@
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4533</v>
+        <v>8842</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5539,22 +5795,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5563,24 +5819,26 @@
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3390</v>
+        <v>5135</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5595,28 +5853,30 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7652</v>
+        <v>7485</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5626,7 +5886,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5636,33 +5896,35 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2355</v>
+        <v>9072</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5672,65 +5934,69 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3487</v>
+        <v>7827</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3107</v>
+        <v>5225</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5749,17 +6015,17 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5768,10 +6034,12 @@
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8136</v>
+        <v>572</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5780,27 +6048,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Paraíba</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5809,29 +6077,31 @@
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3697</v>
+        <v>7705</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5841,19 +6111,21 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9744</v>
+        <v>3261</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -5862,7 +6134,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5872,43 +6144,45 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3444</v>
+        <v>457</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5918,33 +6192,35 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>36</v>
+        <v>4146</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5954,29 +6230,31 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7303</v>
+        <v>9749</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5985,7 +6263,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5995,43 +6273,45 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5097</v>
+        <v>9959</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Mato Grosso do Sul</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6041,94 +6321,98 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9362</v>
+        <v>7354</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Amapá</t>
+          <t>Rio Grande do Norte</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8477</v>
+        <v>4826</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Amapá</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6137,39 +6421,41 @@
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1601</v>
+        <v>8995</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6178,39 +6464,41 @@
         </is>
       </c>
       <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5631</v>
+        <v>2558</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Amapá</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6219,24 +6507,26 @@
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1643</v>
+        <v>8826</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6251,33 +6541,35 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>419</v>
+        <v>2443</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Rondônia</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6287,12 +6579,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6301,39 +6593,41 @@
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8664</v>
+        <v>4212</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6342,51 +6636,55 @@
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8349</v>
+        <v>6370</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Paraná</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8837</v>
+        <v>1576</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -6395,17 +6693,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6415,33 +6713,35 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>7342</v>
+        <v>2525</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Amapá</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6451,110 +6751,116 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1887</v>
+        <v>3404</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2099</v>
+        <v>589</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Pará</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4062</v>
+        <v>4519</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6564,43 +6870,45 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1328</v>
+        <v>3339</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Rio Grande do Sul</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6615,12 +6923,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6629,10 +6937,12 @@
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1588</v>
+        <v>9748</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6641,80 +6951,84 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>Mato Grosso</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1521</v>
+        <v>5884</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Maranhão</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5361</v>
+        <v>926</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -6723,22 +7037,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6748,18 +7062,20 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9104</v>
+        <v>3253</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6769,17 +7085,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6789,18 +7105,20 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5558</v>
+        <v>7072</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6810,94 +7128,98 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>7811</v>
+        <v>6419</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>42</v>
+        <v>2821</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6907,38 +7229,40 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9782</v>
+        <v>9097</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Espírito Santo</t>
+          <t>Acre</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6948,28 +7272,30 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8145</v>
+        <v>7175</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Paraná</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6989,23 +7315,25 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4499</v>
+        <v>7633</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7015,34 +7343,36 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8002</v>
+        <v>5419</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -7051,68 +7381,70 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Piauí</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7423</v>
+        <v>8333</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7121,10 +7453,12 @@
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8698</v>
+        <v>6969</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -7133,39 +7467,41 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>7278</v>
+        <v>2824</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -7174,7 +7510,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Mato Grosso do Sul</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7184,17 +7520,17 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7203,10 +7539,12 @@
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4543</v>
+        <v>3630</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -7215,7 +7553,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Roraima</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7225,17 +7563,17 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7244,10 +7582,12 @@
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2654</v>
+        <v>2932</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -7256,7 +7596,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7266,29 +7606,31 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9852</v>
+        <v>7336</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -7297,12 +7639,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Mato Grosso do Sul</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7312,33 +7654,35 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1576</v>
+        <v>4624</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7348,12 +7692,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7363,23 +7707,25 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5094</v>
+        <v>1842</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7389,12 +7735,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Espírita</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7408,51 +7754,55 @@
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2907</v>
+        <v>8455</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Rondônia</t>
+          <t>Espírito Santo</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>4450</v>
+        <v>9459</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -7461,53 +7811,55 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Rio Grande do Norte</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1881</v>
+        <v>3612</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7517,24 +7869,26 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2586</v>
+        <v>8486</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -7543,39 +7897,41 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9591</v>
+        <v>4748</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -7584,12 +7940,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Paraíba</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7599,24 +7955,26 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>8111</v>
+        <v>8710</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7625,207 +7983,217 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5906</v>
+        <v>2381</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Rondônia</t>
+          <t>Santa Catarina</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>5482</v>
+        <v>5946</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Extrema Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4238</v>
+        <v>9471</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Católica</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9571</v>
+        <v>2473</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>4336</v>
+        <v>9534</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7835,22 +8203,22 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7859,10 +8227,12 @@
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>7161</v>
+        <v>8780</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -7871,53 +8241,55 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>Pará</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Notebook/Netbook</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>6613</v>
+        <v>5641</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7927,43 +8299,45 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8855</v>
+        <v>829</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7973,38 +8347,40 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>5570</v>
+        <v>8042</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -8014,7 +8390,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8023,10 +8399,12 @@
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>860</v>
+        <v>2889</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -8035,7 +8413,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8045,29 +8423,31 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3936</v>
+        <v>5900</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -8076,53 +8456,55 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9091</v>
+        <v>7363</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Rio Grande do Sul</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8132,43 +8514,45 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>8831</v>
+        <v>2106</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -8178,28 +8562,30 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9676</v>
+        <v>235</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Rio Grande do Sul</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -8209,17 +8595,17 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Ateu</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Extrema Esquerda</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8228,10 +8614,12 @@
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3190</v>
+        <v>1285</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -8240,39 +8628,41 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Desktop/Computador de mesa</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>832</v>
+        <v>2140</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -8281,27 +8671,27 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Santa Catarina</t>
+          <t>Alagoas</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Agnóstico</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Extrema Direita</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8310,60 +8700,64 @@
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>4407</v>
+        <v>30</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Paraíba</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Tablet</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Outras</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Não se interessa</t>
+          <t>Direita</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3627</v>
+        <v>6149</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Minas Gerais</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -8373,12 +8767,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Agnóstico</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8388,74 +8782,78 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>4481</v>
+        <v>8165</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Judaíca</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Centro Esquerda</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>&lt;1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3878</v>
+        <v>2852</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Smartphone/Celular</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8465,19 +8863,21 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Direita</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5872</v>
+        <v>7066</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -8486,27 +8886,27 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Notebook/Netbook</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Evangélica</t>
+          <t>Judaíca</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Esquerda</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8515,29 +8915,31 @@
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>5509</v>
+        <v>2858</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>Amapá</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Tablet</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8547,69 +8949,73 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Centro Esquerda</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>1-3</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>7602</v>
+        <v>9292</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Pernambuco</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Prefiro não dizer</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Extrema Esquerda</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>1-3</t>
+          <t>&gt;10</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>5285</v>
+        <v>3</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Minas Gerais</t>
+          <t>Pernambuco</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8624,38 +9030,40 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Espírita</t>
+          <t>Outras</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Centro Direita</t>
+          <t>Não se interessa</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>&gt;10</t>
+          <t>&lt;1</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3356</v>
+        <v>755</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Rondônia</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Desktop/Computador de mesa</t>
+          <t>Smartphone/Celular</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8665,12 +9073,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Ateu</t>
+          <t>Evangélica</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Esquerda</t>
+          <t>Centro Direita</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8679,6 +9087,8 @@
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
